--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colingammon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E5E4C3-F841-1C4E-81F9-14384ED6BC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1070D645-BDD5-A646-B934-9AEB1073C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1520" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="27640" windowHeight="16440" xr2:uid="{298549E1-0AB3-8B40-AA41-C57D8EA77E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -44,29 +44,41 @@
     <t>ISBN</t>
   </si>
   <si>
-    <t>Native Americans in Sports Vol Set</t>
-  </si>
-  <si>
-    <t>Native Americans in Sports Vol 2</t>
-  </si>
-  <si>
-    <t>Native Americans in Sports Vol 1</t>
-  </si>
-  <si>
-    <t>9780765680549 </t>
-  </si>
-  <si>
-    <t>9781032829524</t>
-  </si>
-  <si>
-    <t>9781032829517</t>
+    <t>9781032993225</t>
+  </si>
+  <si>
+    <t>German Diplomatic Documents 1871-1914 Vol Set</t>
+  </si>
+  <si>
+    <t>9781032989853</t>
+  </si>
+  <si>
+    <t>German Diplomatic Documents 1871-1914 Volume 1</t>
+  </si>
+  <si>
+    <t>9781032990118</t>
+  </si>
+  <si>
+    <t>German Diplomatic Documents 1871-1914 Volume 2</t>
+  </si>
+  <si>
+    <t>9781032990361</t>
+  </si>
+  <si>
+    <t>German Diplomatic Documents 1871-1914 Volume 3</t>
+  </si>
+  <si>
+    <t>9781032992006</t>
+  </si>
+  <si>
+    <t>German Diplomatic Documents 1871-1914 Volume 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,32 +92,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,13 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -239,7 +229,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -460,55 +450,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA528BA0-8999-D240-BE6D-73BF9C455E47}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="22" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>